--- a/pontinho2/outputs/gramatica/param-list.xlsx
+++ b/pontinho2/outputs/gramatica/param-list.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>"float"</t>
   </si>
@@ -99,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -145,111 +142,108 @@
       <c r="N1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="C3" s="0">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0">
-        <v>4</v>
-      </c>
-      <c r="E3" s="0">
-        <v>5</v>
-      </c>
-      <c r="F3" s="0">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0">
-        <v>7</v>
-      </c>
       <c r="H3" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="I4" s="0">
-        <v>11</v>
+      <c r="N4" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="O5" s="0">
-        <v>2</v>
+      <c r="N5" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>4</v>
       </c>
-      <c r="O6" s="0">
-        <v>2</v>
+      <c r="N6" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>5</v>
       </c>
-      <c r="O7" s="0">
-        <v>2</v>
+      <c r="N7" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>6</v>
       </c>
-      <c r="O8" s="0">
-        <v>2</v>
+      <c r="N8" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>7</v>
       </c>
-      <c r="O9" s="0">
-        <v>2</v>
+      <c r="N9" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>8</v>
       </c>
-      <c r="O10" s="0">
-        <v>2</v>
+      <c r="N10" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>9</v>
       </c>
-      <c r="O11" s="0">
-        <v>23</v>
+      <c r="N11" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="O12" s="0">
-        <v>9</v>
+      <c r="I12" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -272,48 +266,51 @@
       <c r="A15" s="0">
         <v>13</v>
       </c>
-      <c r="L15" s="0">
-        <v>14</v>
+      <c r="N15" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>14</v>
       </c>
-      <c r="O16" s="0">
-        <v>9</v>
+      <c r="L16" s="0">
+        <v>15</v>
+      </c>
+      <c r="N16" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="M17" s="0">
-        <v>16</v>
+      <c r="H17" s="0">
+        <v>18</v>
+      </c>
+      <c r="N17" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
         <v>16</v>
       </c>
-      <c r="I18" s="0">
-        <v>19</v>
-      </c>
-      <c r="O18" s="0">
-        <v>14</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>17</v>
       </c>
+      <c r="N19" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>18</v>
       </c>
-      <c r="O20" s="0">
-        <v>17</v>
+      <c r="I20" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -336,122 +333,122 @@
       <c r="A23" s="0">
         <v>21</v>
       </c>
-      <c r="L23" s="0">
-        <v>22</v>
+      <c r="N23" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>22</v>
       </c>
-      <c r="O24" s="0">
-        <v>17</v>
+      <c r="M24" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>23</v>
       </c>
+      <c r="B25" s="0">
+        <v>25</v>
+      </c>
+      <c r="C25" s="0">
+        <v>26</v>
+      </c>
+      <c r="D25" s="0">
+        <v>27</v>
+      </c>
+      <c r="E25" s="0">
+        <v>28</v>
+      </c>
+      <c r="F25" s="0">
+        <v>29</v>
+      </c>
+      <c r="G25" s="0">
+        <v>30</v>
+      </c>
       <c r="N25" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>24</v>
       </c>
-      <c r="C26" s="0">
-        <v>26</v>
-      </c>
-      <c r="D26" s="0">
-        <v>27</v>
-      </c>
-      <c r="E26" s="0">
-        <v>28</v>
-      </c>
-      <c r="F26" s="0">
-        <v>29</v>
-      </c>
-      <c r="G26" s="0">
-        <v>30</v>
-      </c>
       <c r="H26" s="0">
-        <v>31</v>
-      </c>
-      <c r="O26" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>25</v>
       </c>
-      <c r="I27" s="0">
-        <v>34</v>
+      <c r="N27" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>26</v>
       </c>
-      <c r="O28" s="0">
-        <v>25</v>
+      <c r="N28" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>27</v>
       </c>
-      <c r="O29" s="0">
-        <v>25</v>
+      <c r="N29" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
         <v>28</v>
       </c>
-      <c r="O30" s="0">
-        <v>25</v>
+      <c r="N30" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
         <v>29</v>
       </c>
-      <c r="O31" s="0">
-        <v>25</v>
+      <c r="N31" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
         <v>30</v>
       </c>
-      <c r="O32" s="0">
-        <v>25</v>
+      <c r="N32" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
         <v>31</v>
       </c>
-      <c r="O33" s="0">
-        <v>25</v>
+      <c r="N33" s="0">
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
         <v>32</v>
       </c>
-      <c r="O34" s="0">
-        <v>38</v>
+      <c r="N34" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>33</v>
       </c>
-      <c r="O35" s="0">
-        <v>32</v>
+      <c r="I35" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -474,48 +471,48 @@
       <c r="A38" s="0">
         <v>36</v>
       </c>
-      <c r="L38" s="0">
-        <v>37</v>
+      <c r="N38" s="0">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>37</v>
       </c>
-      <c r="O39" s="0">
-        <v>32</v>
+      <c r="L39" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
         <v>38</v>
       </c>
-      <c r="M40" s="0">
-        <v>39</v>
+      <c r="H40" s="0">
+        <v>41</v>
+      </c>
+      <c r="N40" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
         <v>39</v>
       </c>
-      <c r="I41" s="0">
-        <v>42</v>
-      </c>
-      <c r="O41" s="0">
-        <v>37</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
         <v>40</v>
       </c>
+      <c r="N42" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
         <v>41</v>
       </c>
-      <c r="O43" s="0">
-        <v>40</v>
+      <c r="I43" s="0">
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -538,16 +535,8 @@
       <c r="A46" s="0">
         <v>44</v>
       </c>
-      <c r="L46" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>45</v>
-      </c>
-      <c r="O47" s="0">
-        <v>40</v>
+      <c r="N46" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
